--- a/APIFakeApp.xlsx
+++ b/APIFakeApp.xlsx
@@ -8,15 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20202\FakeApp\FakeAppRestAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4E68A-62FB-47B8-891F-ADDACEA13483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCA198F-8723-47BC-8344-A05A57A292DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{9FD02961-8844-4A0E-9340-47CDEB2E2614}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="868" xr2:uid="{9FD02961-8844-4A0E-9340-47CDEB2E2614}"/>
   </bookViews>
   <sheets>
     <sheet name="API_List" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Logout" sheetId="3" r:id="rId3"/>
-    <sheet name="Signup" sheetId="4" r:id="rId4"/>
+    <sheet name="EditComment" sheetId="16" r:id="rId2"/>
+    <sheet name="DeleteComment" sheetId="15" r:id="rId3"/>
+    <sheet name="CommentPost" sheetId="14" r:id="rId4"/>
+    <sheet name="InterestedPost" sheetId="13" r:id="rId5"/>
+    <sheet name="GetListPosts" sheetId="12" r:id="rId6"/>
+    <sheet name="GetPost" sheetId="11" r:id="rId7"/>
+    <sheet name="ClosePost" sheetId="10" r:id="rId8"/>
+    <sheet name="DeletePost" sheetId="9" r:id="rId9"/>
+    <sheet name="EditPost" sheetId="8" r:id="rId10"/>
+    <sheet name="ChangeUserInfor" sheetId="6" r:id="rId11"/>
+    <sheet name="AddPost" sheetId="7" r:id="rId12"/>
+    <sheet name="GetUserInfor" sheetId="5" r:id="rId13"/>
+    <sheet name="Login" sheetId="2" r:id="rId14"/>
+    <sheet name="Logout" sheetId="3" r:id="rId15"/>
+    <sheet name="Signup" sheetId="4" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -69,9 +81,6 @@
     <t>signup</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -118,9 +127,6 @@
   </si>
   <si>
     <t>message</t>
-  </si>
-  <si>
-    <t>user_data</t>
   </si>
   <si>
     <t>array</t>
@@ -220,18 +226,12 @@
     <t>DeletePost</t>
   </si>
   <si>
-    <t>LikePost</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
     <t>user/get_user_infor</t>
   </si>
   <si>
-    <t>user/change_infor</t>
-  </si>
-  <si>
     <t>post/add_post</t>
   </si>
   <si>
@@ -244,16 +244,64 @@
     <t>post/get_post</t>
   </si>
   <si>
-    <t>post/like_post</t>
-  </si>
-  <si>
-    <t>GetListPost</t>
-  </si>
-  <si>
-    <t>post/get_list_post</t>
-  </si>
-  <si>
-    <t>Do yêu cầu của Project 2 không cao nên em xin phép chỉ phát triển 11 tính năng trên</t>
+    <t>CommentPost</t>
+  </si>
+  <si>
+    <t>post/comment_post</t>
+  </si>
+  <si>
+    <t>InterestedPost</t>
+  </si>
+  <si>
+    <t>post/interested_post</t>
+  </si>
+  <si>
+    <t>user/logout</t>
+  </si>
+  <si>
+    <t>lấy thông tin người dùng</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>mã token</t>
+  </si>
+  <si>
+    <t>id người dùng muốn lấy infor</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>ClosePost</t>
+  </si>
+  <si>
+    <t>post/close_post</t>
+  </si>
+  <si>
+    <t>user/change_user_infor</t>
+  </si>
+  <si>
+    <t>post/get_list_posts</t>
+  </si>
+  <si>
+    <t>GetListPosts</t>
+  </si>
+  <si>
+    <t>post/delete_comment</t>
+  </si>
+  <si>
+    <t>DeleteComment</t>
+  </si>
+  <si>
+    <t>EditComment</t>
+  </si>
+  <si>
+    <t>post/edit_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id người dùng muốn lấy infor </t>
   </si>
 </sst>
 </file>
@@ -455,41 +503,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,8 +533,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,44 +872,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC1154F-8C84-405A-9AEA-94E1FE1FE3E5}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -867,14 +917,14 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -884,14 +934,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -901,7 +951,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -918,14 +968,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -935,14 +985,14 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>49</v>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -952,14 +1002,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>50</v>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -969,14 +1019,14 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -986,14 +1036,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1003,31 +1053,31 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>63</v>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1037,50 +1087,451 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
+      <c r="B13" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" location="Login!A1" display="Login" xr:uid="{518A30A8-ECC5-43B1-AC41-ED479B29269E}"/>
     <hyperlink ref="B4" location="Logout!A1" display="Logout" xr:uid="{14AB49E1-3F43-4251-AAE4-662AB428C8DC}"/>
     <hyperlink ref="B5" location="Signup!A1" display="Signup" xr:uid="{06D04254-CC07-4A59-AFBA-479E029BDF0A}"/>
+    <hyperlink ref="B6" location="GetUserInfor!A1" display="GetUserInfor" xr:uid="{BDB78485-9D60-4D66-8241-A5D5CBEC6DEA}"/>
+    <hyperlink ref="B7" location="ChangeUserInfor!A1" display="ChangeUserInfor" xr:uid="{BEE24EAD-08BB-4F7C-A39A-56AE94E4CA69}"/>
+    <hyperlink ref="B8" location="AddPost!A1" display="AddPost" xr:uid="{4A2E2E3E-E05F-46A4-B712-D45DABE466F1}"/>
+    <hyperlink ref="B9" location="EditPost!A1" display="EditPost" xr:uid="{EDFDB842-C058-4489-AC3C-BE7DB74AEEA0}"/>
+    <hyperlink ref="B10" location="ClosePost!A1" display="ClosePost" xr:uid="{ED227BB1-7175-48F5-8963-0F996F9F9D04}"/>
+    <hyperlink ref="B11" location="DeletePost!A1" display="DeletePost" xr:uid="{96D725F5-679A-475A-A205-6DB52FFEA5ED}"/>
+    <hyperlink ref="B12" location="GetPost!A1" display="GetPost" xr:uid="{B187E29D-73FF-4A17-9E48-97E5E72785B8}"/>
+    <hyperlink ref="B13" location="GetListPosts!A1" display="GetListPosts" xr:uid="{5DAFAEF7-B944-4190-A3D8-E43F8F6EC267}"/>
+    <hyperlink ref="B14" location="InterestedPost!A1" display="InterestedPost" xr:uid="{BA162C23-AE6E-4B11-B322-3C919C3B9443}"/>
+    <hyperlink ref="B15" location="CommentPost!A1" display="CommentPost" xr:uid="{9D6DF365-8ADF-4C24-A3BF-DDDD9106501C}"/>
+    <hyperlink ref="B16" location="DeleteComment!A1" display="DeleteComment" xr:uid="{27429435-102E-4D40-AA54-DD64CA323CD2}"/>
+    <hyperlink ref="B17" location="EditComment!A1" display="EditComment" xr:uid="{190738D6-02A7-47F4-882B-37540ED668D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A992C3F-FE76-40DD-AF18-277997C65257}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2028EB5-F756-4DC0-9578-9795D5EBF89D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0900E326-CB51-425B-AE6A-1D4D1A152A43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FC341C-D6D6-46B7-B87E-6A370514882C}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>3</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3ABF2B-7593-4680-9755-F5583C3BA6FF}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1092,261 +1543,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>2</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10" t="s">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1361,12 +1812,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E42F5-620D-4297-A942-C25561949CD5}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,176 +1829,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1559,13 +2010,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5229BDF-7DAF-4D8E-82E0-D88C7D6B2C10}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1577,282 +2026,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>2</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>3</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90786AB2-3FA1-452A-82D2-A357985032A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450A18C-8791-493F-9BA5-7714E3606AB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411756CC-5DD9-441A-BD95-3514C7C12EEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA4AB0-7539-4A38-89B8-1E452854FC8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B892E13-4659-4B1F-81DA-11A5E06F08A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7537506B-8982-4BE0-9DCE-F8B0DB8B7276}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF23CAD-1C59-4951-BA28-86123C5C39A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CCAEDD-A69C-4C8E-AD6A-4E2B5D1A0FE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/APIFakeApp.xlsx
+++ b/APIFakeApp.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20202\FakeApp\FakeAppRestAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCA198F-8723-47BC-8344-A05A57A292DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD363D-395F-4886-AE4D-36C1213130E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="868" xr2:uid="{9FD02961-8844-4A0E-9340-47CDEB2E2614}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" xr2:uid="{9FD02961-8844-4A0E-9340-47CDEB2E2614}"/>
   </bookViews>
   <sheets>
     <sheet name="API_List" sheetId="1" r:id="rId1"/>
-    <sheet name="EditComment" sheetId="16" r:id="rId2"/>
-    <sheet name="DeleteComment" sheetId="15" r:id="rId3"/>
-    <sheet name="CommentPost" sheetId="14" r:id="rId4"/>
-    <sheet name="InterestedPost" sheetId="13" r:id="rId5"/>
-    <sheet name="GetListPosts" sheetId="12" r:id="rId6"/>
-    <sheet name="GetPost" sheetId="11" r:id="rId7"/>
-    <sheet name="ClosePost" sheetId="10" r:id="rId8"/>
-    <sheet name="DeletePost" sheetId="9" r:id="rId9"/>
-    <sheet name="EditPost" sheetId="8" r:id="rId10"/>
-    <sheet name="ChangeUserInfor" sheetId="6" r:id="rId11"/>
-    <sheet name="AddPost" sheetId="7" r:id="rId12"/>
-    <sheet name="GetUserInfor" sheetId="5" r:id="rId13"/>
-    <sheet name="Login" sheetId="2" r:id="rId14"/>
-    <sheet name="Logout" sheetId="3" r:id="rId15"/>
-    <sheet name="Signup" sheetId="4" r:id="rId16"/>
+    <sheet name="SeeAllNotificationUnseen" sheetId="25" r:id="rId2"/>
+    <sheet name="GetNumNotificationUnseen" sheetId="24" r:id="rId3"/>
+    <sheet name="SeeNotification" sheetId="23" r:id="rId4"/>
+    <sheet name="GetListNotification" sheetId="22" r:id="rId5"/>
+    <sheet name="GetListInterested-post" sheetId="21" r:id="rId6"/>
+    <sheet name="FollowOther" sheetId="19" r:id="rId7"/>
+    <sheet name="GetListFollow" sheetId="18" r:id="rId8"/>
+    <sheet name="GetListComment" sheetId="17" r:id="rId9"/>
+    <sheet name="EditComment" sheetId="16" r:id="rId10"/>
+    <sheet name="DeleteComment" sheetId="15" r:id="rId11"/>
+    <sheet name="CommentPost" sheetId="14" r:id="rId12"/>
+    <sheet name="InterestedPost" sheetId="13" r:id="rId13"/>
+    <sheet name="GetListPosts" sheetId="12" r:id="rId14"/>
+    <sheet name="GetPost" sheetId="11" r:id="rId15"/>
+    <sheet name="ClosePost" sheetId="10" r:id="rId16"/>
+    <sheet name="DeletePost" sheetId="9" r:id="rId17"/>
+    <sheet name="EditPost" sheetId="8" r:id="rId18"/>
+    <sheet name="ChangeUserInfor" sheetId="6" r:id="rId19"/>
+    <sheet name="AddPost" sheetId="7" r:id="rId20"/>
+    <sheet name="GetUserInfor" sheetId="5" r:id="rId21"/>
+    <sheet name="GetListInterested -user" sheetId="20" r:id="rId22"/>
+    <sheet name="Login" sheetId="2" r:id="rId23"/>
+    <sheet name="Logout" sheetId="3" r:id="rId24"/>
+    <sheet name="Signup" sheetId="4" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -303,12 +312,66 @@
   <si>
     <t xml:space="preserve">id người dùng muốn lấy infor </t>
   </si>
+  <si>
+    <t>GetListComment</t>
+  </si>
+  <si>
+    <t>GetListFollow</t>
+  </si>
+  <si>
+    <t>FollowOther</t>
+  </si>
+  <si>
+    <t>GetListInterested -user</t>
+  </si>
+  <si>
+    <t>GetListInterested-post</t>
+  </si>
+  <si>
+    <t>GetListNotification</t>
+  </si>
+  <si>
+    <t>SeeNotification</t>
+  </si>
+  <si>
+    <t>GetNumNotificationUnseen</t>
+  </si>
+  <si>
+    <t>SeeAllNotificationUnseen</t>
+  </si>
+  <si>
+    <t>post/get_list_comments</t>
+  </si>
+  <si>
+    <t>user/get_list_follow</t>
+  </si>
+  <si>
+    <t>user/follow_other</t>
+  </si>
+  <si>
+    <t>user/get_notification</t>
+  </si>
+  <si>
+    <t>user/see_notification</t>
+  </si>
+  <si>
+    <t>user/get_list_interested</t>
+  </si>
+  <si>
+    <t>post/get_list_interested</t>
+  </si>
+  <si>
+    <t>user/get_notificationUnseen</t>
+  </si>
+  <si>
+    <t>user/see_all_notificationUnseen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +424,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,10 +602,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,11 +623,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -872,31 +942,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC1154F-8C84-405A-9AEA-94E1FE1FE3E5}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -913,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -930,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -947,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -964,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -981,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -998,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1015,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1032,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1049,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1066,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1083,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1100,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1117,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1134,37 +1204,190 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="15" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1188,6 +1411,15 @@
     <hyperlink ref="B15" location="CommentPost!A1" display="CommentPost" xr:uid="{9D6DF365-8ADF-4C24-A3BF-DDDD9106501C}"/>
     <hyperlink ref="B16" location="DeleteComment!A1" display="DeleteComment" xr:uid="{27429435-102E-4D40-AA54-DD64CA323CD2}"/>
     <hyperlink ref="B17" location="EditComment!A1" display="EditComment" xr:uid="{190738D6-02A7-47F4-882B-37540ED668D6}"/>
+    <hyperlink ref="B18" location="GetListComment!A1" display="GetListComment" xr:uid="{F488CFCE-147D-4758-8869-C2296242C331}"/>
+    <hyperlink ref="B19" location="GetListFollow!A1" display="GetListFollow" xr:uid="{9629A21E-253D-4879-822B-E581C4A0A798}"/>
+    <hyperlink ref="B20" location="FollowOther!A1" display="FollowOther" xr:uid="{F40833D3-A0E1-4C87-80D7-98314D206FD2}"/>
+    <hyperlink ref="B21" location="'GetListInterested -user'!A1" display="GetListInterested -user" xr:uid="{4404AA0B-9366-4C24-BE52-DA523A368F57}"/>
+    <hyperlink ref="B22" location="'GetListInterested-post'!A1" display="GetListInterested-post" xr:uid="{5CE3EB31-0160-44DA-9609-787D979ABFDF}"/>
+    <hyperlink ref="B23" location="GetListNotification!A1" display="GetListNotification" xr:uid="{944472BF-2DC2-4D93-B6FD-E67EDD8C7DBD}"/>
+    <hyperlink ref="B24" location="SeeNotification!A1" display="SeeNotification" xr:uid="{A2395A11-A0F5-4729-9C5C-78FCE7B4C894}"/>
+    <hyperlink ref="B25" location="GetNumNotificationUnseen!A1" display="GetNumNotificationUnseen" xr:uid="{1F1EA7DD-363A-46C9-8B7F-5F9BBBF6D430}"/>
+    <hyperlink ref="B26" location="SeeAllNotificationUnseen!A1" display="SeeAllNotificationUnseen" xr:uid="{0BC0D273-A538-42CF-90E1-760349357680}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1195,116 +1427,238 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90786AB2-3FA1-452A-82D2-A357985032A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450A18C-8791-493F-9BA5-7714E3606AB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411756CC-5DD9-441A-BD95-3514C7C12EEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA4AB0-7539-4A38-89B8-1E452854FC8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B892E13-4659-4B1F-81DA-11A5E06F08A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7537506B-8982-4BE0-9DCE-F8B0DB8B7276}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF23CAD-1C59-4951-BA28-86123C5C39A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CCAEDD-A69C-4C8E-AD6A-4E2B5D1A0FE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A992C3F-FE76-40DD-AF18-277997C65257}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2028EB5-F756-4DC0-9578-9795D5EBF89D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC100F-3641-4F26-9271-CF17107A5E48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0900E326-CB51-425B-AE6A-1D4D1A152A43}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FC341C-D6D6-46B7-B87E-6A370514882C}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1667,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -1343,7 +1697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -1358,29 +1712,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1743,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -1417,7 +1771,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -1430,11 +1784,11 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6"/>
@@ -1445,9 +1799,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1458,9 +1812,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1471,9 +1825,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1484,126 +1838,138 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35A4E55-4B2F-4ED6-98A5-DEF3E04C94F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3ABF2B-7593-4680-9755-F5583C3BA6FF}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1612,7 +1978,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -1648,7 +2014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -1666,14 +2032,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +2048,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -1710,7 +2076,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -1723,11 +2089,11 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>3</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="6"/>
@@ -1738,9 +2104,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
@@ -1751,9 +2117,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1764,9 +2130,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
@@ -1777,9 +2143,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
@@ -1790,14 +2156,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1812,7 +2178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E42F5-620D-4297-A942-C25561949CD5}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1820,76 +2186,75 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1898,7 +2263,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +2278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -1928,7 +2293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -1943,14 +2308,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1959,7 +2324,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +2339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -1987,7 +2352,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2010,83 +2375,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5229BDF-7DAF-4D8E-82E0-D88C7D6B2C10}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2460,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -2131,7 +2496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -2149,7 +2514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -2167,7 +2532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -2176,7 +2541,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2204,7 +2569,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2217,11 +2582,11 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>3</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="6"/>
@@ -2232,9 +2597,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2245,9 +2610,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2258,9 +2623,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
@@ -2271,9 +2636,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
@@ -2284,14 +2649,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2306,113 +2671,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90786AB2-3FA1-452A-82D2-A357985032A8}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11219912-D97C-4516-8A51-F02E5C2CC5D1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450A18C-8791-493F-9BA5-7714E3606AB0}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ECD235-BA76-41ED-9C75-1D179CF88CDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411756CC-5DD9-441A-BD95-3514C7C12EEB}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C492DB0-ACF8-4DA0-AD8F-5F0C33EAED54}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA4AB0-7539-4A38-89B8-1E452854FC8C}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF14588-7067-421A-A0E5-6121C3A7A0CE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B892E13-4659-4B1F-81DA-11A5E06F08A6}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D13E54-5A1C-4A78-8B26-85031C2BEDC9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7537506B-8982-4BE0-9DCE-F8B0DB8B7276}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDD11C4-921B-4890-BA38-6C4463CB1B28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF23CAD-1C59-4951-BA28-86123C5C39A0}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1117385-4578-46AB-9AB7-D5F55931A92E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CCAEDD-A69C-4C8E-AD6A-4E2B5D1A0FE3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
